--- a/data/trans_bre/IP16A02-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP16A02-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-36,85; 11,42</t>
+          <t>-36,65; 12,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,68; 22,54</t>
+          <t>-24,67; 23,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-37,25; 20,92</t>
+          <t>-34,91; 21,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-49,23; 21,38</t>
+          <t>-45,21; 19,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-62,42; 35,37</t>
+          <t>-63,39; 42,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-44,94; 86,53</t>
+          <t>-48,6; 98,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-62,64; 78,62</t>
+          <t>-61,91; 79,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-75,51; 69,1</t>
+          <t>-78,24; 64,69</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,93; 6,88</t>
+          <t>-15,8; 9,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 12,83</t>
+          <t>-8,26; 12,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 15,0</t>
+          <t>-7,61; 15,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 18,19</t>
+          <t>-7,94; 17,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-36,61; 22,07</t>
+          <t>-37,28; 31,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,23; 35,13</t>
+          <t>-17,33; 35,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,67; 52,35</t>
+          <t>-19,57; 54,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-19,09; 50,09</t>
+          <t>-18,13; 50,09</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-35,32; 1,53</t>
+          <t>-35,85; 5,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,15; 21,67</t>
+          <t>-10,65; 23,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,17; 18,96</t>
+          <t>-19,18; 18,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,54; 17,35</t>
+          <t>-20,69; 17,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-63,39; 3,58</t>
+          <t>-63,69; 14,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,64; 93,03</t>
+          <t>-27,29; 103,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-35,37; 60,29</t>
+          <t>-36,45; 55,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,31; 42,82</t>
+          <t>-34,04; 43,46</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,72; 1,46</t>
+          <t>-17,79; 1,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 11,77</t>
+          <t>-5,44; 11,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 10,4</t>
+          <t>-6,88; 11,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 12,27</t>
+          <t>-8,1; 11,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-38,72; 4,05</t>
+          <t>-38,93; 4,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 33,08</t>
+          <t>-12,77; 34,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-14,92; 33,38</t>
+          <t>-16,7; 35,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-18,4; 30,59</t>
+          <t>-16,64; 29,92</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A02-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP16A02-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-11,43</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-8,01</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-18,96</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,79%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,12%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,38%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,59%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,27; 14,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,1; 22,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,67; 23,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,47; 16,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,75; 52,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,43; 91,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,19; 87,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,03; 43,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-11,43</t>
+          <t>-3,81</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-8,01</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-14,25</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-24,79%</t>
+          <t>-10,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-0,12%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-18,38%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-30,15%</t>
+          <t>-4,08%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-36,65; 12,79</t>
+          <t>-14,09; 8,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,67; 23,19</t>
+          <t>-7,22; 13,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-34,91; 21,75</t>
+          <t>-6,48; 14,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-45,21; 19,07</t>
+          <t>-27,23; 12,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-63,39; 42,03</t>
+          <t>-34,62; 29,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-48,6; 98,45</t>
+          <t>-16,47; 37,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-61,91; 79,19</t>
+          <t>-16,73; 54,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-78,24; 64,69</t>
+          <t>-56,94; 32,35</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,81</t>
+          <t>-16,72</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>6,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-10,45%</t>
+          <t>-34,06%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>19,57%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>-5,74%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,8; 9,14</t>
+          <t>-36,18; 3,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 12,89</t>
+          <t>-9,62; 24,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 15,01</t>
+          <t>-15,43; 20,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 17,69</t>
+          <t>-21,43; 16,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-37,28; 31,01</t>
+          <t>-66,0; 9,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,33; 35,49</t>
+          <t>-26,06; 113,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-19,57; 54,73</t>
+          <t>-30,94; 63,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-18,13; 50,09</t>
+          <t>-34,15; 39,85</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-16,72</t>
+          <t>-7,98</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,11</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-34,06%</t>
+          <t>-19,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-3,29%</t>
+          <t>-8,46%</t>
         </is>
       </c>
     </row>
@@ -968,156 +968,55 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-35,85; 5,71</t>
+          <t>-18,07; 1,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 23,24</t>
+          <t>-5,29; 11,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,18; 18,89</t>
+          <t>-6,67; 11,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,69; 17,22</t>
+          <t>-22,03; 7,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-63,69; 14,95</t>
+          <t>-39,06; 3,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,29; 103,37</t>
+          <t>-12,09; 33,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-36,45; 55,77</t>
+          <t>-16,06; 34,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-34,04; 43,46</t>
+          <t>-43,99; 18,62</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-8,28</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,93</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,95</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,21</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-20,08%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>7,5%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>5,31%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>5,02%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-17,79; 1,74</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-5,44; 11,7</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-6,88; 11,1</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-8,1; 11,95</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-38,93; 4,92</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-12,77; 34,12</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-16,7; 35,62</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-16,64; 29,92</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
